--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent_strict.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent_strict.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">millionaire_tax_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0572424488318244</v>
+        <v>0.0461285657788434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0200439083743079</v>
+        <v>0.019797491413917</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0944409892893409</v>
+        <v>0.0724596401437698</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0623967412778408</v>
+        <v>0.0486706582010774</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00903659924937603</v>
+        <v>0.0110988437647862</v>
       </c>
       <c r="D3" t="n">
-        <v>0.115756883306306</v>
+        <v>0.0862424726373686</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0529807064537961</v>
+        <v>0.0249390799013659</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0546366572011952</v>
+        <v>-0.0534596316251868</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160598070108787</v>
+        <v>0.103337791427918</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0889469019110709</v>
+        <v>0.0772972876891449</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0644381776115033</v>
+        <v>-0.0298528523416173</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242331981433645</v>
+        <v>0.184447427719907</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0347504589000149</v>
+        <v>0.111299894074955</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.140611680567523</v>
+        <v>-0.00805843128584366</v>
       </c>
       <c r="D6" t="n">
-        <v>0.210112598367552</v>
+        <v>0.230658219435754</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0308068589369808</v>
+        <v>0.0336828202518876</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.113867207929128</v>
+        <v>-0.0671457193603415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17548092580309</v>
+        <v>0.134511359864117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.226139881848609</v>
+        <v>0.190567503358391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0752072456472848</v>
+        <v>0.0828294959941132</v>
       </c>
       <c r="D8" t="n">
-        <v>0.377072518049932</v>
+        <v>0.298305510722669</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0328390972905134</v>
+        <v>-0.018749281740621</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0834614915686526</v>
+        <v>-0.0994201362474925</v>
       </c>
       <c r="D9" t="n">
-        <v>0.149139686149679</v>
+        <v>0.0619215727662506</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0693270683582993</v>
+        <v>-0.00156935444217611</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.165800230136959</v>
+        <v>-0.168767094442469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.304454366853558</v>
+        <v>0.165628385558117</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0326344372592476</v>
+        <v>0.0255434199687464</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0227662299464809</v>
+        <v>-0.0137594871745128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.088035104464976</v>
+        <v>0.0648463271120057</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.108443185027749</v>
+        <v>0.104120455771318</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.017009408027221</v>
+        <v>0.0157757410245066</v>
       </c>
       <c r="D12" t="n">
-        <v>0.233895778082719</v>
+        <v>0.192465170518129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent_strict.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent_strict.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0461285657788434</v>
+        <v>0.0461285657788435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.019797491413917</v>
+        <v>0.0197974914139171</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0724596401437698</v>
+        <v>0.0724596401437699</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0486706582010774</v>
+        <v>0.0486706582010772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0110988437647862</v>
+        <v>0.0110988437647863</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0862424726373686</v>
+        <v>0.0862424726373682</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0249390799013659</v>
+        <v>0.0249390799013661</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0534596316251868</v>
+        <v>-0.0534596316251866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103337791427918</v>
+        <v>0.103337791427919</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0772972876891449</v>
+        <v>0.0772972876891451</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0298528523416173</v>
+        <v>-0.0298528523416172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.184447427719907</v>
+        <v>0.184447427719908</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -487,7 +487,7 @@
         <v>0.111299894074955</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00805843128584366</v>
+        <v>-0.00805843128584373</v>
       </c>
       <c r="D6" t="n">
         <v>0.230658219435754</v>
@@ -504,7 +504,7 @@
         <v>0.0336828202518876</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0671457193603415</v>
+        <v>-0.0671457193603416</v>
       </c>
       <c r="D7" t="n">
         <v>0.134511359864117</v>
@@ -521,10 +521,10 @@
         <v>0.190567503358391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0828294959941132</v>
+        <v>0.0828294959941131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.298305510722669</v>
+        <v>0.298305510722668</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.018749281740621</v>
+        <v>-0.0187492817406211</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0994201362474925</v>
+        <v>-0.0994201362474926</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0619215727662506</v>
+        <v>0.0619215727662504</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00156935444217611</v>
+        <v>-0.00156935444217605</v>
       </c>
       <c r="C10" t="n">
         <v>-0.168767094442469</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0255434199687464</v>
+        <v>0.0255434199687468</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0137594871745128</v>
+        <v>-0.0137594871745126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0648463271120057</v>
+        <v>0.0648463271120061</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -589,7 +589,7 @@
         <v>0.104120455771318</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0157757410245066</v>
+        <v>0.0157757410245067</v>
       </c>
       <c r="D12" t="n">
         <v>0.192465170518129</v>

--- a/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent_strict.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_millionaire_tax_in_program_consistent_strict.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0461285657788435</v>
+        <v>0.0461285657788436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0197974914139171</v>
+        <v>0.0197974914139172</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0724596401437699</v>
+        <v>0.0724596401437701</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0486706582010772</v>
+        <v>0.0486706582010774</v>
       </c>
       <c r="C3" t="n">
         <v>0.0110988437647863</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0862424726373682</v>
+        <v>0.0862424726373686</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,10 +450,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0249390799013661</v>
+        <v>0.0249390799013659</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0534596316251866</v>
+        <v>-0.0534596316251867</v>
       </c>
       <c r="D4" t="n">
         <v>0.103337791427919</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0772972876891451</v>
+        <v>0.0772972876891449</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0298528523416172</v>
+        <v>-0.0298528523416175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.184447427719908</v>
+        <v>0.184447427719907</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -487,7 +487,7 @@
         <v>0.111299894074955</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.00805843128584373</v>
+        <v>-0.00805843128584376</v>
       </c>
       <c r="D6" t="n">
         <v>0.230658219435754</v>
@@ -501,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0336828202518876</v>
+        <v>0.0336828202518875</v>
       </c>
       <c r="C7" t="n">
         <v>-0.0671457193603416</v>
@@ -524,7 +524,7 @@
         <v>0.0828294959941131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.298305510722668</v>
+        <v>0.298305510722669</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -552,7 +552,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00156935444217605</v>
+        <v>-0.00156935444217618</v>
       </c>
       <c r="C10" t="n">
         <v>-0.168767094442469</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0255434199687468</v>
+        <v>0.0255434199687464</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0137594871745126</v>
+        <v>-0.0137594871745129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0648463271120061</v>
+        <v>0.0648463271120057</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.104120455771318</v>
+        <v>0.104120455771317</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0157757410245067</v>
+        <v>0.0157757410245064</v>
       </c>
       <c r="D12" t="n">
-        <v>0.192465170518129</v>
+        <v>0.192465170518128</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
